--- a/test_cases/PE-53.xlsx
+++ b/test_cases/PE-53.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nico\Escritorio\.UADE\TESTING\TestingAplicaciones-Smere-TPO\test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fuckultad\testin\tpo\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAD5B9-2B8A-45BC-9117-D6B2EF47760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE03148-9669-4A04-BFA6-067B3E5D6436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -300,6 +300,21 @@
   </si>
   <si>
     <t>Secondary Email = sameemail@email.com</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>Not As Expected</t>
+  </si>
+  <si>
+    <t>Tester: Lucas Conforti</t>
+  </si>
+  <si>
+    <t>DF-001: Modify user, there is no Goverment id field</t>
+  </si>
+  <si>
+    <t>DF-002: Change password function allows you to change it to the current password</t>
   </si>
 </sst>
 </file>
@@ -344,6 +359,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -724,7 +740,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -825,6 +841,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -870,47 +919,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,8 +940,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1210,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1233,19 +1255,19 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1257,22 +1279,22 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="61"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="22.5">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1283,10 +1305,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1315,14 +1337,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1331,14 +1353,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
@@ -1356,14 +1378,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="41.25" customHeight="1">
       <c r="A8" s="15">
@@ -1381,14 +1403,14 @@
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="45">
       <c r="A9" s="15">
@@ -1444,52 +1466,40 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="56"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="G16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="51"/>
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="4:14" ht="39" thickTop="1">
       <c r="G17" s="21" t="s">
@@ -1498,24 +1508,12 @@
       <c r="H17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="4:14">
       <c r="G18" s="23" t="s">
@@ -1524,46 +1522,26 @@
       <c r="H18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="4:14">
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="4:14" ht="22.5">
       <c r="G19" s="23" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>30</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="4:14">
       <c r="G20" s="23" t="s">
@@ -1572,22 +1550,12 @@
       <c r="H20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="4:14">
       <c r="G21" s="25"/>
@@ -1622,101 +1590,84 @@
       <c r="N23" s="16"/>
     </row>
     <row r="25" spans="4:14">
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59" t="s">
+      <c r="L25" s="35"/>
+      <c r="M25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="59"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" spans="4:14" ht="32.25" customHeight="1">
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="G26" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="4:14">
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="4:14">
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="4:14">
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -1733,13 +1684,30 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1749,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1768,19 +1736,19 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1792,22 +1760,22 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="61"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="22.5">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1818,10 +1786,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1850,14 +1818,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1866,14 +1834,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" customHeight="1">
       <c r="A7" s="12" t="s">
@@ -1891,14 +1859,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="54" customHeight="1">
       <c r="A8" s="15">
@@ -1916,14 +1884,14 @@
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="22.5">
       <c r="A9" s="15">
@@ -1979,52 +1947,40 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="56"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="G16" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="51"/>
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="4:14" ht="39" thickTop="1">
       <c r="G17" s="21" t="s">
@@ -2033,24 +1989,12 @@
       <c r="H17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="4:14">
       <c r="G18" s="23" t="s">
@@ -2059,22 +2003,12 @@
       <c r="H18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="4:14">
       <c r="G19" s="23" t="s">
@@ -2083,46 +2017,26 @@
       <c r="H19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="4:14">
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="4:14" ht="22.5">
       <c r="G20" s="23" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="4:14">
       <c r="G21" s="25"/>
@@ -2157,111 +2071,77 @@
       <c r="N23" s="16"/>
     </row>
     <row r="25" spans="4:14">
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59" t="s">
+      <c r="L25" s="35"/>
+      <c r="M25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="59"/>
-    </row>
-    <row r="26" spans="4:14">
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="26" spans="4:14" ht="56.25" customHeight="1">
+      <c r="G26" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="68"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="4:14">
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="4:14">
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="4:14">
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G1:G2"/>
@@ -2275,6 +2155,40 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2284,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2303,19 +2217,19 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -2327,24 +2241,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="62"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="22.5">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2355,10 +2269,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2387,14 +2301,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -2403,14 +2317,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:14" ht="65.25" customHeight="1">
       <c r="A7" s="12" t="s">
@@ -2428,14 +2342,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:14" ht="22.5">
       <c r="A8" s="15">
@@ -2506,52 +2420,40 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1">
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="56"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="51"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="4:14" ht="39" thickTop="1">
       <c r="G17" s="21" t="s">
@@ -2560,96 +2462,50 @@
       <c r="H17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="4:14">
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+    </row>
+    <row r="18" spans="4:14" ht="22.5">
       <c r="G18" s="23" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="4:14" ht="22.5">
+      <c r="G19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="4:14">
-      <c r="G19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="4:14">
-      <c r="G20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="4:14">
       <c r="G21" s="25"/>
@@ -2684,77 +2540,107 @@
       <c r="N23" s="16"/>
     </row>
     <row r="25" spans="4:14">
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59" t="s">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59" t="s">
+      <c r="L25" s="35"/>
+      <c r="M25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="59"/>
-    </row>
-    <row r="26" spans="4:14">
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="26" spans="4:14" ht="36" customHeight="1">
+      <c r="G26" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="4:14">
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="4:14">
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="4:14">
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="4:14">
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="44">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="G1:G2"/>
@@ -2767,39 +2653,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2832,19 +2685,19 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
@@ -2859,15 +2712,15 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="62"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
@@ -2876,10 +2729,10 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2890,10 +2743,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2924,14 +2777,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -2940,14 +2793,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -2968,14 +2821,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -2996,14 +2849,14 @@
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -3084,16 +2937,16 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="28"/>
@@ -3102,22 +2955,22 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="56"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="28"/>
@@ -3126,22 +2979,22 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="65"/>
+      <c r="I16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="63" t="s">
+      <c r="L16" s="65"/>
+      <c r="M16" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="64"/>
+      <c r="N16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1">
       <c r="A17" s="28"/>
@@ -3336,22 +3189,22 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65" t="s">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65" t="s">
+      <c r="J25" s="66"/>
+      <c r="K25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65" t="s">
+      <c r="L25" s="66"/>
+      <c r="M25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="65"/>
+      <c r="N25" s="66"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="28"/>
@@ -3360,16 +3213,16 @@
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="28"/>
@@ -3378,14 +3231,14 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="28"/>
@@ -3394,14 +3247,14 @@
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="28"/>
@@ -3410,14 +3263,14 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="28"/>
@@ -3426,52 +3279,17 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
@@ -3484,6 +3302,41 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3516,19 +3369,19 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
@@ -3543,15 +3396,15 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="62"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
@@ -3560,10 +3413,10 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -3574,10 +3427,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -3608,14 +3461,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -3624,14 +3477,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -3652,14 +3505,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -3680,14 +3533,14 @@
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -3768,16 +3621,16 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="28"/>
@@ -3786,22 +3639,22 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="s">
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="56"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="28"/>
@@ -3810,22 +3663,22 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="65"/>
+      <c r="I16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="65"/>
+      <c r="K16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="63" t="s">
+      <c r="L16" s="65"/>
+      <c r="M16" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="64"/>
+      <c r="N16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1">
       <c r="A17" s="28"/>
@@ -4020,22 +3873,22 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65" t="s">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65" t="s">
+      <c r="J25" s="66"/>
+      <c r="K25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65" t="s">
+      <c r="L25" s="66"/>
+      <c r="M25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="65"/>
+      <c r="N25" s="66"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="28"/>
@@ -4044,16 +3897,16 @@
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="28"/>
@@ -4062,14 +3915,14 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="28"/>
@@ -4078,14 +3931,14 @@
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="28"/>
@@ -4094,14 +3947,14 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="28"/>
@@ -4110,52 +3963,17 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
@@ -4168,6 +3986,41 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4177,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4200,19 +4053,19 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="46"/>
+      <c r="G1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
@@ -4227,15 +4080,15 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45"/>
+      <c r="E2" s="62"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
@@ -4244,10 +4097,10 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -4258,10 +4111,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -4292,14 +4145,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -4308,14 +4161,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -4336,14 +4189,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -4364,14 +4217,14 @@
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="58"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -4411,6 +4264,12 @@
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="D11" s="17">
         <v>4</v>
       </c>
@@ -4452,16 +4311,16 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="28"/>
@@ -4470,22 +4329,16 @@
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="56"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="28"/>
@@ -4494,22 +4347,16 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1">
       <c r="A17" s="28"/>
@@ -4524,24 +4371,12 @@
       <c r="H17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="28"/>
@@ -4556,22 +4391,12 @@
       <c r="H18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="28"/>
@@ -4586,22 +4411,12 @@
       <c r="H19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="28"/>
@@ -4616,22 +4431,12 @@
       <c r="H20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="28"/>
@@ -4704,22 +4509,22 @@
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="65" t="s">
+      <c r="G25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65" t="s">
+      <c r="H25" s="66"/>
+      <c r="I25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65" t="s">
+      <c r="J25" s="66"/>
+      <c r="K25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65" t="s">
+      <c r="L25" s="66"/>
+      <c r="M25" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="65"/>
+      <c r="N25" s="66"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="28"/>
@@ -4728,16 +4533,16 @@
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="28"/>
@@ -4746,14 +4551,14 @@
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="28"/>
@@ -4762,14 +4567,14 @@
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="28"/>
@@ -4778,14 +4583,14 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="28"/>
@@ -4794,52 +4599,17 @@
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
@@ -4852,6 +4622,41 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
